--- a/Packet/PacketData/WordCheck.xlsx
+++ b/Packet/PacketData/WordCheck.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ワードチェック要求" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t xml:space="preserve">$MEMBER$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
   </si>
   <si>
     <t xml:space="preserve">std::string</t>
@@ -166,10 +172,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="5:5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -218,8 +224,19 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="0" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -238,10 +255,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="5:5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -256,7 +273,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -264,7 +281,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -290,14 +307,25 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="0" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>

--- a/Packet/PacketData/WordCheck.xlsx
+++ b/Packet/PacketData/WordCheck.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ワードチェック要求" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -53,10 +53,16 @@
     <t xml:space="preserve">Type</t>
   </si>
   <si>
+    <t xml:space="preserve">タイプ</t>
+  </si>
+  <si>
     <t xml:space="preserve">std::string</t>
   </si>
   <si>
     <t xml:space="preserve">Message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メッセージ</t>
   </si>
   <si>
     <t xml:space="preserve">WordCheckPacketChatResult</t>
@@ -172,10 +178,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="5:5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -227,16 +233,22 @@
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -255,10 +267,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="5:5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -273,7 +285,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -281,7 +293,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -310,16 +322,22 @@
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
